--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -662,11 +662,11 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2024-01-17 13:20</t>
+          <t>2024-01-17 15:20</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>商场内某些区域信号较差</t>
+          <t>商业街信号基本正常</t>
         </is>
       </c>
     </row>
@@ -697,11 +697,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2024-01-18 08:45</t>
+          <t>2024-01-18 09:00</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>地下停车场完全无信号</t>
+          <t>市政府附近信号良好</t>
         </is>
       </c>
     </row>
@@ -732,11 +732,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2024-01-18 15:10</t>
+          <t>2024-01-18 13:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>办公楼内部分区域信号弱</t>
+          <t>老城区信号中等</t>
         </is>
       </c>
     </row>
@@ -767,21 +767,21 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2024-01-19 07:30</t>
+          <t>2024-01-19 08:15</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>李明</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>候车厅部分座位区信号不佳</t>
+          <t>交通枢纽信号覆盖良好</t>
         </is>
       </c>
     </row>
@@ -798,25 +798,25 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>2024-01-19 10:15</t>
+          <t>2024-01-19 14:30</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>陈华</t>
+          <t>冯十二</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>住院部电梯间信号很差</t>
+          <t>医院大楼内信号稳定</t>
         </is>
       </c>
     </row>

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -820,6 +820,3156 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>南通市崇川区解放路</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区解放路408号</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>6</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>2024-01-21 17:57</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>南通市开发区青年路</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区青年路753号</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>2024-01-27 16:49</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>南通市启东市解放路</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市解放路509号</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>4</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>2024-01-16 11:03</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>周九</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>南通市启东市胜利路</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市胜利路897号</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>8</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2024-01-27 13:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>吴十</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>南通市港闸区和平路</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区和平路494号</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>6</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2024-01-15 11:31</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>南通市崇川区解放路</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区解放路572号</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>5</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2024-01-16 09:48</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>林华</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>南通市海安市解放路</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市解放路473号</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>2024-01-25 10:37</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>陈明</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>南通市海门区和平路</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区和平路499号</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>8</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2024-01-25 09:20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>南通市开发区文化路</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区文化路396号</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>7</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>2024-01-27 17:51</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>南通市海安市解放路</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市解放路569号</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>7</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>2024-01-23 14:05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>南通市如东县青年路</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县青年路395号</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>4</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2024-01-23 12:53</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>郑十一</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>南通市海门区文化路</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区文化路714号</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>2024-01-22 14:17</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>南通市通州区工农路</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区工农路106号</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>6</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>2024-01-26 17:07</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>林华</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>南通市港闸区友谊路</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区友谊路751号</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>4</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>2024-01-29 15:44</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>冯十二</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>南通市崇川区解放路</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区解放路596号</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>4</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>2024-01-21 12:46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>谢勇</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>南通市启东市和平路</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市和平路398号</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2024-01-26 14:04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>南通市通州区青年路</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区青年路429号</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>6</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>2024-01-29 10:32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>朱峰</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>南通市通州区建设路</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区建设路212号</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>2024-01-18 10:14</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>马超</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>南通市海门区中山路</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区中山路367号</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>7</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>2024-01-20 17:17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>林华</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>南通市启东市人民路</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市人民路792号</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>5</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>2024-01-18 12:57</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>南通市开发区解放路</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区解放路68号</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>2024-01-22 18:46</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>孙八</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>南通市启东市友谊路</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市友谊路61号</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>5</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>2024-01-30 08:02</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>南通市通州区工农路</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区工农路185号</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>2024-01-27 11:42</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>徐静</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>南通市港闸区建设路</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区建设路373号</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>8</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>2024-01-30 12:38</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>南通市海门区青年路</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区青年路365号</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>6</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>2024-01-21 11:10</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>黄强</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>南通市通州区解放路</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区解放路159号</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>4</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>2024-01-23 11:31</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>南通市港闸区中山路</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区中山路48号</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>5</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>2024-01-29 09:51</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>钱七</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>南通市通州区青年路</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区青年路113号</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>7</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>2024-01-16 15:20</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>谢勇</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>南通市崇川区工农路</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区工农路85号</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>2024-01-25 09:52</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>南通市海门区中山路</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区中山路585号</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>8</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>2024-01-29 11:29</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>冯十二</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>南通市如东县建设路</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县建设路174号</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>2024-01-16 11:18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>吴十</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>南通市开发区建设路</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区建设路140号</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>2024-01-29 08:21</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>钱七</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>南通市通州区和平路</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区和平路334号</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>7</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>2024-01-27 10:15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>南通市开发区工农路</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区工农路60号</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2024-01-23 08:51</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>陈明</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>南通市海门区建设路</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区建设路769号</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>2024-01-30 09:53</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>刘敏</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>南通市开发区建设路</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区建设路233号</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>5</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>2024-01-18 15:33</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>郑十一</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>南通市海门区青年路</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区青年路333号</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>6</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>2024-01-19 09:45</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>南通市崇川区人民路</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区人民路264号</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>7</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>2024-01-21 14:19</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>南通市开发区建设路</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区建设路495号</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>2024-01-26 11:08</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>南通市启东市和平路</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市和平路120号</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>2024-01-26 13:38</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>南通市崇川区人民路</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区人民路838号</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>8</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>2024-01-23 15:52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>周九</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>南通市如东县工农路</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县工农路239号</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>2024-01-15 15:19</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>南通市如东县人民路</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县人民路796号</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>6</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>2024-01-20 18:47</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>南通市港闸区胜利路</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区胜利路113号</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>4</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>2024-01-15 13:06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>谢勇</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>南通市海门区青年路</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区青年路578号</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>2024-01-21 11:49</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>马超</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>南通市启东市和平路</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市和平路705号</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>8</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>2024-01-18 17:05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>孙八</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>南通市开发区人民路</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区人民路511号</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>3</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-01-26 08:32</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>南通市海门区工农路</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区工农路634号</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>6</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>2024-01-19 09:09</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>黄强</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>南通市港闸区解放路</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区解放路500号</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>7</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>2024-01-22 17:49</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>南通市海安市中山路</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市中山路155号</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>8</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>2024-01-22 13:45</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>陈明</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>南通市通州区文化路</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区文化路628号</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>4</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>2024-01-23 10:41</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>刘敏</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>南通市海门区人民路</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区人民路60号</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>2024-01-22 08:10</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>南通市通州区文化路</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区文化路459号</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>2024-01-26 08:04</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>南通市启东市中山路</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市中山路201号</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>2</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>2024-01-26 13:24</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>刘敏</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>南通市崇川区解放路</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区解放路369号</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>8</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>2024-01-20 08:58</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>黄强</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>南通市海门区青年路</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区青年路311号</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>5</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>2024-01-18 17:14</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>徐静</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>南通市如东县青年路</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县青年路654号</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>4</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>2024-01-23 09:31</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>南通市崇川区人民路</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区人民路505号</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>7</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2024-01-28 15:38</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>郑十一</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>南通市通州区文化路</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区文化路475号</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>2024-01-30 08:37</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>南通市海门区青年路</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区青年路230号</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>4</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>2024-01-27 09:26</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>冯十二</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>南通市崇川区人民路</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区人民路976号</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>8</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>2024-01-23 10:42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>林华</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>南通市启东市工农路</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市工农路711号</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>6</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>2024-01-17 14:15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>陈明</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>南通市港闸区工农路</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区工农路813号</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>5</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>2024-01-15 08:01</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>黄强</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>南通市通州区和平路</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区和平路699号</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>5</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>2024-01-26 08:52</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>陈明</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>南通市通州区胜利路</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区胜利路538号</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>7</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>2024-01-22 08:32</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>张三</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>南通市开发区人民路</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区人民路523号</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>6</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>2024-01-16 18:05</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>南通市启东市友谊路</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市友谊路95号</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>8</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>2024-01-17 12:25</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>冯十二</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>南通市开发区解放路</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区解放路347号</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>4</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>2024-01-17 12:14</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>徐静</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>南通市开发区人民路</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区人民路409号</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>8</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>2024-01-28 12:09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>杨洋</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>南通市崇川区工农路</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区工农路783号</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>2024-01-16 15:53</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>南通市启东市文化路</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>江苏省南通市启东市文化路656号</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>7</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>2024-01-24 14:10</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>马超</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>南通市海安市和平路</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市和平路643号</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>2</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>2024-01-22 13:35</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>李四</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>南通市港闸区友谊路</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>江苏省南通市港闸区友谊路756号</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>7</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>2024-01-19 08:55</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>南通市开发区解放路</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区解放路421号</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>2024-01-23 18:39</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>黄强</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>南通市开发区文化路</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>江苏省南通市开发区文化路180号</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>4</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>2024-01-23 17:03</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>徐静</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>南通市海安市解放路</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市解放路506号</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>7</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>2024-01-18 11:00</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>刘敏</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>电梯内无信号</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>南通市海安市中山路</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市中山路262号</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>6</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>2024-01-30 11:55</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>南通市崇川区文化路</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>江苏省南通市崇川区文化路684号</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>2024-01-23 12:22</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>徐静</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>南通市海安市解放路</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市解放路622号</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>2024-01-15 17:42</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>陈明</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>户外信号强</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>南通市海门区友谊路</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区友谊路91号</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>8</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>2024-01-23 14:49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>谢勇</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>地下室信号差</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>南通市通州区工农路</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区工农路583号</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>4</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>2024-01-29 09:17</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>马超</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>南通市海安市文化路</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市文化路326号</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>3</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>2024-01-30 13:40</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>南通市海安市人民路</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市人民路913号</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>2024-01-20 09:09</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>偶有中断</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>南通市海安市青年路</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>江苏省南通市海安市青年路31号</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>5</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>2024-01-28 10:34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>冯十二</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>南通市海门区工农路</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区工农路397号</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>6</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>2024-01-24 09:26</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>徐静</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>南通市通州区解放路</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区解放路133号</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>2024-01-29 14:42</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>赵六</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>信号正常</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>南通市如东县青年路</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县青年路156号</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>2</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>2024-01-18 11:39</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>梁美</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>室内信号良好</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>南通市通州区建设路</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>江苏省南通市通州区建设路154号</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>7</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>2024-01-29 16:33</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>钱七</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>南通市如东县文化路</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>江苏省南通市如东县文化路869号</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>5G</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>8</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>2024-01-18 12:48</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>王五</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>网络稳定</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>南通市海门区和平路</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>江苏省南通市海门区和平路279号</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>4G</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>6</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>2024-01-26 13:00</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>马超</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>信号较弱</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/example_data.xlsx
+++ b/example_data.xlsx
@@ -823,52 +823,52 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>南通市崇川区解放路</t>
+          <t>南通市如东县中山路</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区解放路408号</t>
+          <t>江苏省南通市如东县中山路412号</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2024-01-21 17:57</t>
+          <t>2024-01-17 09:18</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>南通市开发区青年路</t>
+          <t>南通市港闸区中山路</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区青年路753号</t>
+          <t>江苏省南通市港闸区中山路258号</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D13" t="n">
@@ -876,29 +876,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2024-01-27 16:49</t>
+          <t>2024-01-22 16:27</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>李四</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>南通市启东市解放路</t>
+          <t>南通市通州区建设路</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市解放路509号</t>
+          <t>江苏省南通市通州区建设路606号</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -907,38 +907,38 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>2024-01-16 11:03</t>
+          <t>2024-01-19 15:20</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>南通市启东市胜利路</t>
+          <t>南通市港闸区解放路</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市胜利路897号</t>
+          <t>江苏省南通市港闸区解放路804号</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D15" t="n">
@@ -946,29 +946,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>2024-01-27 13:00</t>
+          <t>2024-01-20 14:27</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>吴十</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>南通市港闸区和平路</t>
+          <t>南通市海安市中山路</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区和平路494号</t>
+          <t>江苏省南通市海安市中山路374号</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -981,29 +981,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>2024-01-15 11:31</t>
+          <t>2024-01-27 18:50</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>南通市崇川区解放路</t>
+          <t>南通市启东市文化路</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区解放路572号</t>
+          <t>江苏省南通市启东市文化路427号</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1012,73 +1012,73 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2024-01-16 09:48</t>
+          <t>2024-01-16 09:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>南通市海安市解放路</t>
+          <t>南通市启东市文化路</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市解放路473号</t>
+          <t>江苏省南通市启东市文化路347号</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2024-01-25 10:37</t>
+          <t>2024-01-25 17:51</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>南通市海门区和平路</t>
+          <t>南通市通州区青年路</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区和平路499号</t>
+          <t>江苏省南通市通州区青年路820号</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D19" t="n">
@@ -1086,29 +1086,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2024-01-25 09:20</t>
+          <t>2024-01-30 11:24</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>南通市开发区文化路</t>
+          <t>南通市通州区青年路</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区文化路396号</t>
+          <t>江苏省南通市通州区青年路108号</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1117,46 +1117,46 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2024-01-27 17:51</t>
+          <t>2024-01-24 17:00</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>冯十二</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>南通市海安市解放路</t>
+          <t>南通市海安市友谊路</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市解放路569号</t>
+          <t>江苏省南通市海安市友谊路212号</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2024-01-23 14:05</t>
+          <t>2024-01-24 12:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1166,19 +1166,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>南通市如东县青年路</t>
+          <t>南通市开发区中山路</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县青年路395号</t>
+          <t>江苏省南通市开发区中山路606号</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1187,103 +1187,103 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2024-01-23 12:53</t>
+          <t>2024-01-18 08:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>南通市海门区文化路</t>
+          <t>南通市海安市工农路</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区文化路714号</t>
+          <t>江苏省南通市海安市工农路699号</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2024-01-22 14:17</t>
+          <t>2024-01-15 11:02</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>李四</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>南通市通州区工农路</t>
+          <t>南通市通州区友谊路</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区工农路106号</t>
+          <t>江苏省南通市通州区友谊路514号</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2024-01-26 17:07</t>
+          <t>2024-01-29 11:22</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>南通市港闸区友谊路</t>
+          <t>南通市崇川区人民路</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区友谊路751号</t>
+          <t>江苏省南通市崇川区人民路100号</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1292,33 +1292,33 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2024-01-29 15:44</t>
+          <t>2024-01-16 15:25</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>南通市崇川区解放路</t>
+          <t>南通市海安市中山路</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区解放路596号</t>
+          <t>江苏省南通市海安市中山路575号</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1327,33 +1327,33 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2024-01-21 12:46</t>
+          <t>2024-01-24 09:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>南通市启东市和平路</t>
+          <t>南通市开发区建设路</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市和平路398号</t>
+          <t>江苏省南通市开发区建设路922号</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1362,16 +1362,16 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2024-01-26 14:04</t>
+          <t>2024-01-26 12:47</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1383,82 +1383,82 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>南通市通州区青年路</t>
+          <t>南通市港闸区解放路</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区青年路429号</t>
+          <t>江苏省南通市港闸区解放路554号</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2024-01-29 10:32</t>
+          <t>2024-01-19 17:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>朱峰</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>南通市通州区建设路</t>
+          <t>南通市启东市中山路</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区建设路212号</t>
+          <t>江苏省南通市启东市中山路702号</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2024-01-18 10:14</t>
+          <t>2024-01-19 12:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>南通市海门区中山路</t>
+          <t>南通市启东市建设路</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区中山路367号</t>
+          <t>江苏省南通市启东市建设路907号</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1471,42 +1471,42 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2024-01-20 17:17</t>
+          <t>2024-01-17 12:08</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>南通市启东市人民路</t>
+          <t>南通市海安市解放路</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市人民路792号</t>
+          <t>江苏省南通市海安市解放路239号</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2024-01-18 12:57</t>
+          <t>2024-01-24 13:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1516,54 +1516,54 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>南通市开发区解放路</t>
+          <t>南通市启东市文化路</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区解放路68号</t>
+          <t>江苏省南通市启东市文化路332号</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2024-01-22 18:46</t>
+          <t>2024-01-16 08:53</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>南通市启东市友谊路</t>
+          <t>南通市开发区青年路</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市友谊路61号</t>
+          <t>江苏省南通市开发区青年路280号</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1572,103 +1572,103 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2024-01-30 08:02</t>
+          <t>2024-01-28 09:01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>南通市通州区工农路</t>
+          <t>南通市通州区解放路</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区工农路185号</t>
+          <t>江苏省南通市通州区解放路968号</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2024-01-27 11:42</t>
+          <t>2024-01-19 12:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>南通市港闸区建设路</t>
+          <t>南通市如东县友谊路</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区建设路373号</t>
+          <t>江苏省南通市如东县友谊路127号</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2024-01-30 12:38</t>
+          <t>2024-01-27 12:27</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>南通市海门区青年路</t>
+          <t>南通市如东县人民路</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区青年路365号</t>
+          <t>江苏省南通市如东县人民路213号</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1677,86 +1677,86 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2024-01-21 11:10</t>
+          <t>2024-01-19 09:00</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>南通市通州区解放路</t>
+          <t>南通市如东县青年路</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区解放路159号</t>
+          <t>江苏省南通市如东县青年路169号</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2024-01-23 11:31</t>
+          <t>2024-01-15 15:00</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>南通市港闸区中山路</t>
+          <t>南通市海安市人民路</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区中山路48号</t>
+          <t>江苏省南通市海安市人民路204号</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2024-01-29 09:51</t>
+          <t>2024-01-17 18:26</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>钱七</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -1768,47 +1768,47 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>南通市通州区青年路</t>
+          <t>南通市启东市和平路</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区青年路113号</t>
+          <t>江苏省南通市启东市和平路197号</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2024-01-16 15:20</t>
+          <t>2024-01-28 17:36</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>南通市崇川区工农路</t>
+          <t>南通市港闸区文化路</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区工农路85号</t>
+          <t>江苏省南通市港闸区文化路954号</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1817,33 +1817,33 @@
         </is>
       </c>
       <c r="D40" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2024-01-25 09:52</t>
+          <t>2024-01-29 10:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>南通市海门区中山路</t>
+          <t>南通市海门区解放路</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区中山路585号</t>
+          <t>江苏省南通市海门区解放路235号</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1852,68 +1852,68 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2024-01-29 11:29</t>
+          <t>2024-01-20 11:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>南通市如东县建设路</t>
+          <t>南通市开发区和平路</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县建设路174号</t>
+          <t>江苏省南通市开发区和平路283号</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2024-01-16 11:18</t>
+          <t>2024-01-18 18:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>吴十</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>南通市开发区建设路</t>
+          <t>南通市海门区友谊路</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区建设路140号</t>
+          <t>江苏省南通市海门区友谊路508号</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1922,68 +1922,68 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2024-01-29 08:21</t>
+          <t>2024-01-21 08:14</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>钱七</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>南通市通州区和平路</t>
+          <t>南通市启东市工农路</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区和平路334号</t>
+          <t>江苏省南通市启东市工农路211号</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2024-01-27 10:15</t>
+          <t>2024-01-29 18:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>南通市开发区工农路</t>
+          <t>南通市开发区解放路</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区工农路60号</t>
+          <t>江苏省南通市开发区解放路419号</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1996,82 +1996,82 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2024-01-23 08:51</t>
+          <t>2024-01-23 15:24</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>南通市海门区建设路</t>
+          <t>南通市港闸区中山路</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区建设路769号</t>
+          <t>江苏省南通市港闸区中山路6号</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2024-01-30 09:53</t>
+          <t>2024-01-15 08:49</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>南通市开发区建设路</t>
+          <t>南通市通州区文化路</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区建设路233号</t>
+          <t>江苏省南通市通州区文化路275号</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2024-01-18 15:33</t>
+          <t>2024-01-30 17:12</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2083,12 +2083,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>南通市海门区青年路</t>
+          <t>南通市开发区胜利路</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区青年路333号</t>
+          <t>江苏省南通市开发区胜利路588号</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2097,68 +2097,68 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2024-01-19 09:45</t>
+          <t>2024-01-30 18:04</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>南通市崇川区人民路</t>
+          <t>南通市开发区中山路</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区人民路264号</t>
+          <t>江苏省南通市开发区中山路253号</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2024-01-21 14:19</t>
+          <t>2024-01-23 16:29</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>南通市开发区建设路</t>
+          <t>南通市如东县友谊路</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区建设路495号</t>
+          <t>江苏省南通市如东县友谊路273号</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2167,46 +2167,46 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>2024-01-26 11:08</t>
+          <t>2024-01-26 12:03</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>南通市启东市和平路</t>
+          <t>南通市开发区文化路</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市和平路120号</t>
+          <t>江苏省南通市开发区文化路497号</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2024-01-26 13:38</t>
+          <t>2024-01-23 11:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2216,19 +2216,19 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>南通市崇川区人民路</t>
+          <t>南通市崇川区文化路</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区人民路838号</t>
+          <t>江苏省南通市崇川区文化路459号</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2237,16 +2237,16 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2024-01-23 15:52</t>
+          <t>2024-01-30 17:15</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>周九</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2258,12 +2258,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>南通市如东县工农路</t>
+          <t>南通市海门区解放路</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县工农路239号</t>
+          <t>江苏省南通市海门区解放路992号</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2272,51 +2272,51 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2024-01-15 15:19</t>
+          <t>2024-01-17 16:36</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>南通市如东县人民路</t>
+          <t>南通市海安市中山路</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县人民路796号</t>
+          <t>江苏省南通市海安市中山路89号</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2024-01-20 18:47</t>
+          <t>2024-01-23 09:46</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2328,12 +2328,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>南通市港闸区胜利路</t>
+          <t>南通市通州区青年路</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区胜利路113号</t>
+          <t>江苏省南通市通州区青年路675号</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2342,68 +2342,68 @@
         </is>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2024-01-15 13:06</t>
+          <t>2024-01-23 16:54</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>冯十二</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>南通市海门区青年路</t>
+          <t>南通市港闸区人民路</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区青年路578号</t>
+          <t>江苏省南通市港闸区人民路789号</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-01-21 11:49</t>
+          <t>2024-01-25 09:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>南通市启东市和平路</t>
+          <t>南通市港闸区解放路</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市和平路705号</t>
+          <t>江苏省南通市港闸区解放路114号</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2412,86 +2412,86 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-01-18 17:05</t>
+          <t>2024-01-26 10:32</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>孙八</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>南通市开发区人民路</t>
+          <t>南通市启东市和平路</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区人民路511号</t>
+          <t>江苏省南通市启东市和平路489号</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>2024-01-26 08:32</t>
+          <t>2024-01-17 12:31</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>南通市海门区工农路</t>
+          <t>南通市通州区文化路</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区工农路634号</t>
+          <t>江苏省南通市通州区文化路403号</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2024-01-19 09:09</t>
+          <t>2024-01-29 10:56</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2503,25 +2503,25 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>南通市港闸区解放路</t>
+          <t>南通市海门区青年路</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区解放路500号</t>
+          <t>江苏省南通市海门区青年路619号</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>2024-01-22 17:49</t>
+          <t>2024-01-22 13:48</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2531,142 +2531,142 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>南通市海安市中山路</t>
+          <t>南通市如东县中山路</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市中山路155号</t>
+          <t>江苏省南通市如东县中山路863号</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2024-01-22 13:45</t>
+          <t>2024-01-24 15:28</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>南通市通州区文化路</t>
+          <t>南通市通州区中山路</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区文化路628号</t>
+          <t>江苏省南通市通州区中山路478号</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>2024-01-23 10:41</t>
+          <t>2024-01-20 15:22</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>南通市海门区人民路</t>
+          <t>南通市海门区解放路</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区人民路60号</t>
+          <t>江苏省南通市海门区解放路676号</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>2024-01-22 08:10</t>
+          <t>2024-01-25 16:12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>南通市通州区文化路</t>
+          <t>南通市港闸区中山路</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区文化路459号</t>
+          <t>江苏省南通市港闸区中山路561号</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D64" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>2024-01-26 08:04</t>
+          <t>2024-01-16 12:50</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2678,47 +2678,47 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>南通市启东市中山路</t>
+          <t>南通市开发区人民路</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市中山路201号</t>
+          <t>江苏省南通市开发区人民路145号</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D65" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>2024-01-26 13:24</t>
+          <t>2024-01-17 16:57</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>南通市崇川区解放路</t>
+          <t>南通市启东市人民路</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区解放路369号</t>
+          <t>江苏省南通市启东市人民路807号</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2727,33 +2727,33 @@
         </is>
       </c>
       <c r="D66" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2024-01-20 08:58</t>
+          <t>2024-01-21 11:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>网络稳定</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>南通市海门区青年路</t>
+          <t>南通市启东市青年路</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区青年路311号</t>
+          <t>江苏省南通市启东市青年路757号</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2762,16 +2762,16 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>2024-01-18 17:14</t>
+          <t>2024-01-25 11:03</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2783,82 +2783,82 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>南通市如东县青年路</t>
+          <t>南通市海门区胜利路</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县青年路654号</t>
+          <t>江苏省南通市海门区胜利路27号</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>2024-01-23 09:31</t>
+          <t>2024-01-18 11:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>周九</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>南通市崇川区人民路</t>
+          <t>南通市开发区工农路</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区人民路505号</t>
+          <t>江苏省南通市开发区工农路276号</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D69" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>2024-01-28 15:38</t>
+          <t>2024-01-27 16:18</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>郑十一</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>南通市通州区文化路</t>
+          <t>南通市港闸区青年路</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区文化路475号</t>
+          <t>江苏省南通市港闸区青年路675号</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2867,86 +2867,86 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>2024-01-30 08:37</t>
+          <t>2024-01-17 15:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>南通市海门区青年路</t>
+          <t>南通市通州区人民路</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区青年路230号</t>
+          <t>江苏省南通市通州区人民路526号</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D71" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>2024-01-27 09:26</t>
+          <t>2024-01-27 09:27</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>林华</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>南通市崇川区人民路</t>
+          <t>南通市海门区中山路</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区人民路976号</t>
+          <t>江苏省南通市海门区中山路697号</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D72" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>2024-01-23 10:42</t>
+          <t>2024-01-18 17:20</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>林华</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -2958,47 +2958,47 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>南通市启东市工农路</t>
+          <t>南通市通州区中山路</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市工农路711号</t>
+          <t>江苏省南通市通州区中山路791号</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D73" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>2024-01-17 14:15</t>
+          <t>2024-01-26 17:26</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>南通市港闸区工农路</t>
+          <t>南通市海安市解放路</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区工农路813号</t>
+          <t>江苏省南通市海安市解放路539号</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3011,29 +3011,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>2024-01-15 08:01</t>
+          <t>2024-01-22 08:33</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>南通市通州区和平路</t>
+          <t>南通市如东县胜利路</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区和平路699号</t>
+          <t>江苏省南通市如东县胜利路942号</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3042,16 +3042,16 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>2024-01-26 08:52</t>
+          <t>2024-01-21 10:21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>吴十</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -3063,12 +3063,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>南通市通州区胜利路</t>
+          <t>南通市如东县建设路</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区胜利路538号</t>
+          <t>江苏省南通市如东县建设路407号</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3077,33 +3077,33 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>2024-01-22 08:32</t>
+          <t>2024-01-24 12:22</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>张三</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>南通市开发区人民路</t>
+          <t>南通市港闸区解放路</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区人民路523号</t>
+          <t>江苏省南通市港闸区解放路764号</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3112,56 +3112,56 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>2024-01-16 18:05</t>
+          <t>2024-01-30 11:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>朱峰</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>南通市启东市友谊路</t>
+          <t>南通市崇川区胜利路</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市友谊路95号</t>
+          <t>江苏省南通市崇川区胜利路803号</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D78" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>2024-01-17 12:25</t>
+          <t>2024-01-24 16:50</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
@@ -3173,25 +3173,25 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区解放路347号</t>
+          <t>江苏省南通市开发区解放路956号</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D79" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>2024-01-17 12:14</t>
+          <t>2024-01-15 15:03</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>赵六</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3203,12 +3203,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>南通市开发区人民路</t>
+          <t>南通市崇川区青年路</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区人民路409号</t>
+          <t>江苏省南通市崇川区青年路974号</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3217,33 +3217,33 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>2024-01-28 12:09</t>
+          <t>2024-01-30 11:13</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>杨洋</t>
+          <t>钱七</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>户外信号强</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>南通市崇川区工农路</t>
+          <t>南通市崇川区友谊路</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区工农路783号</t>
+          <t>江苏省南通市崇川区友谊路677号</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3252,138 +3252,138 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>2024-01-16 15:53</t>
+          <t>2024-01-29 18:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>南通市启东市文化路</t>
+          <t>南通市如东县中山路</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>江苏省南通市启东市文化路656号</t>
+          <t>江苏省南通市如东县中山路662号</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D82" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>2024-01-24 14:10</t>
+          <t>2024-01-22 10:17</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>南通市海安市和平路</t>
+          <t>南通市海门区胜利路</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市和平路643号</t>
+          <t>江苏省南通市海门区胜利路810号</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>2024-01-22 13:35</t>
+          <t>2024-01-30 13:07</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>李四</t>
+          <t>谢勇</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>地下室信号差</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>南通市港闸区友谊路</t>
+          <t>南通市开发区工农路</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>江苏省南通市港闸区友谊路756号</t>
+          <t>江苏省南通市开发区工农路817号</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D84" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>2024-01-19 08:55</t>
+          <t>2024-01-18 10:27</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>刘敏</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>南通市开发区解放路</t>
+          <t>南通市通州区中山路</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区解放路421号</t>
+          <t>江苏省南通市通州区中山路120号</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3392,33 +3392,33 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>2024-01-23 18:39</t>
+          <t>2024-01-29 12:34</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>黄强</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>南通市开发区文化路</t>
+          <t>南通市通州区工农路</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>江苏省南通市开发区文化路180号</t>
+          <t>江苏省南通市通州区工农路746号</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3427,33 +3427,33 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>2024-01-23 17:03</t>
+          <t>2024-01-24 10:18</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>张三</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>南通市海安市解放路</t>
+          <t>南通市港闸区胜利路</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市解放路506号</t>
+          <t>江苏省南通市港闸区胜利路362号</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3462,33 +3462,33 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>2024-01-18 11:00</t>
+          <t>2024-01-30 17:40</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>刘敏</t>
+          <t>杨洋</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>电梯内无信号</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>南通市海安市中山路</t>
+          <t>南通市海门区友谊路</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市中山路262号</t>
+          <t>江苏省南通市海门区友谊路499号</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3497,33 +3497,33 @@
         </is>
       </c>
       <c r="D88" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>2024-01-30 11:55</t>
+          <t>2024-01-20 12:51</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>南通市崇川区文化路</t>
+          <t>南通市如东县工农路</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>江苏省南通市崇川区文化路684号</t>
+          <t>江苏省南通市如东县工农路840号</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3532,38 +3532,38 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>2024-01-23 12:22</t>
+          <t>2024-01-21 12:08</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>梁美</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>南通市海安市解放路</t>
+          <t>南通市通州区和平路</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市解放路622号</t>
+          <t>江苏省南通市通州区和平路770号</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -3571,12 +3571,12 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>2024-01-15 17:42</t>
+          <t>2024-01-27 17:01</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>陈明</t>
+          <t>郑十一</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3588,12 +3588,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>南通市海门区友谊路</t>
+          <t>南通市通州区青年路</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区友谊路91号</t>
+          <t>江苏省南通市通州区青年路38号</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3602,51 +3602,51 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>2024-01-23 14:49</t>
+          <t>2024-01-17 17:54</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>谢勇</t>
+          <t>孙八</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>地下室信号差</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>南通市通州区工农路</t>
+          <t>南通市如东县中山路</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区工农路583号</t>
+          <t>江苏省南通市如东县中山路205号</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>2024-01-29 09:17</t>
+          <t>2024-01-18 10:54</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>刘敏</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -3663,112 +3663,112 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市文化路326号</t>
+          <t>江苏省南通市海安市文化路687号</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>4G</t>
+          <t>5G</t>
         </is>
       </c>
       <c r="D93" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>2024-01-30 13:40</t>
+          <t>2024-01-19 13:20</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>南通市海安市人民路</t>
+          <t>南通市如东县工农路</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市人民路913号</t>
+          <t>江苏省南通市如东县工农路576号</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D94" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>2024-01-20 09:09</t>
+          <t>2024-01-19 15:26</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>偶有中断</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>南通市海安市青年路</t>
+          <t>南通市崇川区人民路</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>江苏省南通市海安市青年路31号</t>
+          <t>江苏省南通市崇川区人民路71号</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>2024-01-28 10:34</t>
+          <t>2024-01-16 15:16</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>冯十二</t>
+          <t>陈明</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>电梯内无信号</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>南通市海门区工农路</t>
+          <t>南通市海门区中山路</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区工农路397号</t>
+          <t>江苏省南通市海门区中山路306号</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3781,29 +3781,29 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>2024-01-24 09:26</t>
+          <t>2024-01-20 14:09</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>徐静</t>
+          <t>黄强</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>南通市通州区解放路</t>
+          <t>南通市开发区工农路</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区解放路133号</t>
+          <t>江苏省南通市开发区工农路40号</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3812,33 +3812,33 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>2024-01-29 14:42</t>
+          <t>2024-01-17 18:35</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>赵六</t>
+          <t>马超</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>信号正常</t>
+          <t>室内信号良好</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>南通市如东县青年路</t>
+          <t>南通市开发区建设路</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县青年路156号</t>
+          <t>江苏省南通市开发区建设路940号</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3847,68 +3847,68 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>2024-01-18 11:39</t>
+          <t>2024-01-17 12:03</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>梁美</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>室内信号良好</t>
+          <t>信号正常</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>南通市通州区建设路</t>
+          <t>南通市港闸区解放路</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>江苏省南通市通州区建设路154号</t>
+          <t>江苏省南通市港闸区解放路971号</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>5G</t>
+          <t>4G</t>
         </is>
       </c>
       <c r="D99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>2024-01-29 16:33</t>
+          <t>2024-01-19 15:54</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>钱七</t>
+          <t>王五</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>户外信号强</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>南通市如东县文化路</t>
+          <t>南通市海安市解放路</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>江苏省南通市如东县文化路869号</t>
+          <t>江苏省南通市海安市解放路692号</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3917,33 +3917,33 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>2024-01-18 12:48</t>
+          <t>2024-01-29 18:53</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>王五</t>
+          <t>徐静</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>网络稳定</t>
+          <t>信号较弱</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>南通市海门区和平路</t>
+          <t>南通市开发区青年路</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>江苏省南通市海门区和平路279号</t>
+          <t>江苏省南通市开发区青年路453号</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -3956,17 +3956,17 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>2024-01-26 13:00</t>
+          <t>2024-01-17 12:48</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>马超</t>
+          <t>李四</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>信号较弱</t>
+          <t>偶有中断</t>
         </is>
       </c>
     </row>
